--- a/画面項目定義/MYpage画面項目定義.xlsx
+++ b/画面項目定義/MYpage画面項目定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81707\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{736B56CA-94AA-43D6-B0DB-AF699CBAB50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B03B6-C564-4FEC-AB6C-49B6B55F2A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BA8B5506-62F0-490C-BBAE-7F08A53E21CD}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{BA8B5506-62F0-490C-BBAE-7F08A53E21CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,58 +80,10 @@
     <t>表示</t>
   </si>
   <si>
-    <r>
-      <t>user_check.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> に遷移</t>
-    </r>
-  </si>
-  <si>
     <t>登録情報更新タブ</t>
   </si>
   <si>
-    <r>
-      <t>user_change.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> に遷移</t>
-    </r>
-  </si>
-  <si>
     <t>検索タブ</t>
-  </si>
-  <si>
-    <r>
-      <t>search.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> に遷移</t>
-    </r>
   </si>
   <si>
     <t>退会タブ</t>
@@ -171,8 +123,42 @@
     <t>「ログアウト」</t>
   </si>
   <si>
+    <t>登録情報確認表示</t>
+  </si>
+  <si>
+    <t>テキストエリア</t>
+  </si>
+  <si>
+    <t>空欄</t>
+  </si>
+  <si>
+    <t>登録情報を表示（動的）</t>
+  </si>
+  <si>
+    <t>予約確認ステータス</t>
+  </si>
+  <si>
+    <t>テキスト</t>
+  </si>
+  <si>
+    <t>予約データに応じて動的表示</t>
+  </si>
+  <si>
+    <t>予約データの有無を確認する</t>
+  </si>
+  <si>
+    <t>予約がある場合はメッセージを表示</t>
+  </si>
+  <si>
+    <t>ログイン画面 に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
-      <t>login.html</t>
+      <t>ホテル検索選択画面</t>
     </r>
     <r>
       <rPr>
@@ -183,35 +169,39 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> に遷移</t>
+      <t>に遷移</t>
     </r>
-  </si>
-  <si>
-    <t>登録情報確認表示</t>
-  </si>
-  <si>
-    <t>テキストエリア</t>
-  </si>
-  <si>
-    <t>空欄</t>
-  </si>
-  <si>
-    <t>登録情報を表示（動的）</t>
-  </si>
-  <si>
-    <t>予約確認ステータス</t>
-  </si>
-  <si>
-    <t>テキスト</t>
-  </si>
-  <si>
-    <t>予約データに応じて動的表示</t>
-  </si>
-  <si>
-    <t>予約データの有無を確認する</t>
-  </si>
-  <si>
-    <t>予約がある場合はメッセージを表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>ホテル予約状況確認画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に遷移</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録情報更新画面 に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジョウホウコウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -272,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +273,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,12 +615,12 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
+    <row r="1" spans="1:6" ht="35.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
+    <row r="2" spans="1:6" ht="52.9">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -667,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48.5">
+    <row r="3" spans="1:6" ht="60.75">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -684,12 +677,12 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="52.9">
+      <c r="A4" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="48.5">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -703,13 +696,13 @@
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="36">
+    <row r="5" spans="1:6" ht="43.15">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -724,12 +717,12 @@
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="90">
+    <row r="6" spans="1:6" ht="88.15">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -741,15 +734,15 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="36">
+    <row r="7" spans="1:6" ht="52.9">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -758,53 +751,53 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="52.9">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="54">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:6" ht="70.5">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="72">
-      <c r="A9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/画面項目定義/MYpage画面項目定義.xlsx
+++ b/画面項目定義/MYpage画面項目定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B03B6-C564-4FEC-AB6C-49B6B55F2A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88E64A-A72C-4E5D-B5D3-8B88FDBCAD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{BA8B5506-62F0-490C-BBAE-7F08A53E21CD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{BA8B5506-62F0-490C-BBAE-7F08A53E21CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>「マイページ」</t>
   </si>
   <si>
-    <t>ページの内容を示す</t>
-  </si>
-  <si>
     <t>予約確認タブ</t>
   </si>
   <si>
@@ -174,7 +171,31 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>登録情報更新画面 に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジョウホウコウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページの内容を示す</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>ホテル予約状況確認画面</t>
     </r>
     <r>
@@ -190,25 +211,12 @@
     </r>
     <phoneticPr fontId="3"/>
   </si>
-  <si>
-    <t>登録情報更新画面 に遷移</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>ジョウホウコウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +246,20 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -615,7 +637,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -657,147 +679,147 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="59.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="60.75">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="52.9">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.15">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="88.15">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="52.9">
       <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="52.9">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="70.5">
       <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
